--- a/analysis/gw_references/sample_info_pilot.xlsx
+++ b/analysis/gw_references/sample_info_pilot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonyzeng/Library/CloudStorage/GoogleDrive-tkzeng@stanford.edu/.shortcut-targets-by-id/1DTL7QkDaDicWoHjkU4JhbU_oMCxttcHE/Engreitz Lab/Users/Stephanie/PerturbSeq Team/Experiments/Stephanie/Experiments with Tony/Genome Wide teloHAEC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193A230A-B934-9D47-8CAD-BE8230BFE4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DFD1A8-BE6A-AB4E-B0C1-5A694BF17D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="4560" windowWidth="26040" windowHeight="14940" xr2:uid="{91FA9609-019C-314B-BD8C-29803C56FD55}"/>
+    <workbookView xWindow="7480" yWindow="7840" windowWidth="26040" windowHeight="14940" xr2:uid="{91FA9609-019C-314B-BD8C-29803C56FD55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>GTTGTAGT</t>
   </si>
@@ -47,9 +47,6 @@
     <t>plate4</t>
   </si>
   <si>
-    <t>../data/250508_NB551514_0295_AHYGKNBGYW</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>CACTCAAT</t>
   </si>
   <si>
-    <t>../data/250507_NB551514_0294_AHTYMNAFX7</t>
-  </si>
-  <si>
     <t>pool1000</t>
   </si>
   <si>
@@ -92,21 +86,9 @@
     <t>AGGTCAGA</t>
   </si>
   <si>
-    <t>R2 length</t>
-  </si>
-  <si>
-    <t>R1 length</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
-    <t>i5 barcode</t>
-  </si>
-  <si>
-    <t>i7 barcode</t>
-  </si>
-  <si>
     <t>sample_to_well_mapping</t>
   </si>
   <si>
@@ -126,6 +108,36 @@
   </si>
   <si>
     <t>sample_id</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>i7_barcode</t>
+  </si>
+  <si>
+    <t>i5_barcode</t>
+  </si>
+  <si>
+    <t>read1_length</t>
+  </si>
+  <si>
+    <t>read2_length</t>
+  </si>
+  <si>
+    <t>paired_guide_pool</t>
+  </si>
+  <si>
+    <t>paired_guide_sample</t>
+  </si>
+  <si>
+    <t>paired_guide_sample_id</t>
+  </si>
+  <si>
+    <t>/oak/stanford/groups/engreitz/Users/tonyzeng/GW_PERTURB/data/250507_NB551514_0294_AHTYMNAFX7</t>
+  </si>
+  <si>
+    <t>/oak/stanford/groups/engreitz/Users/tonyzeng/GW_PERTURB/data/250508_NB551514_0295_AHYGKNBGYW</t>
   </si>
 </sst>
 </file>
@@ -510,202 +522,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B765F47-9725-4C4D-B1B6-7CF688850597}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="50.5" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="44.5" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>18</v>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="C2" t="str">
+        <f>_xlfn.CONCAT(A2,":",B2)</f>
+        <v>pool1000:gex_1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
         <v>3000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <f>0.95*115000000/3000*0.1</f>
         <v>3641.6666666666665</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2">
+        <v>66</v>
+      </c>
+      <c r="M2">
+        <v>86</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="str">
+        <f>_xlfn.CONCAT(N2,":",O2)</f>
+        <v>pool1000:guide_1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="str">
+        <f>_xlfn.CONCAT(A3,":",B3)</f>
+        <v>pool1001:gex_1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>50000</v>
+      </c>
+      <c r="F3">
+        <f>0.95*400000000/50000*0.1</f>
+        <v>760</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2">
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3">
         <v>66</v>
       </c>
-      <c r="L2">
+      <c r="M3">
         <v>86</v>
       </c>
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3" si="0">_xlfn.CONCAT(N3,":",O3)</f>
+        <v>pool1001:guide_1</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>3000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="s">
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
         <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3">
-        <v>66</v>
-      </c>
-      <c r="L3">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>50000</v>
+      <c r="C4" t="str">
+        <f>_xlfn.CONCAT(A4,":",B4)</f>
+        <v>pool1000:guide_1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
       </c>
       <c r="E4">
-        <f>0.95*400000000/50000*0.1</f>
-        <v>760</v>
+        <v>3000</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4">
         <v>66</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>86</v>
       </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="str">
+        <f>_xlfn.CONCAT(A5,":",B5)</f>
+        <v>pool1001:guide_1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
         <v>50000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
       </c>
       <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>66</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>86</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
